--- a/Data/Processed/Angiosperms/missing_powo_ipni/Vochysiaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Vochysiaceae.xlsx
@@ -1477,7 +1477,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1873,7 +1873,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -3974,7 +3974,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4942,7 +4942,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -5360,7 +5360,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -5370,7 +5370,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t xml:space="preserve">Annuaire Conserv. Jard. Bot. Genève 20: 378. 1919 </t>
+          <t>Annuaire Conserv. Jard. Bot. Genève 20: 378. 1919</t>
         </is>
       </c>
       <c r="J87" t="b">
@@ -5438,7 +5438,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -5448,7 +5448,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Annuaire Conserv. Jard. Bot. Genève 20: 377. 1919 </t>
+          <t>Annuaire Conserv. Jard. Bot. Genève 20: 377. 1919</t>
         </is>
       </c>
       <c r="J88" t="b">
@@ -5516,7 +5516,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -5526,7 +5526,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Annuaire Conserv. Jard. Bot. Genève 20: 379. 1919 </t>
+          <t>Annuaire Conserv. Jard. Bot. Genève 20: 379. 1919</t>
         </is>
       </c>
       <c r="J89" t="b">
@@ -5594,7 +5594,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -5604,7 +5604,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Torrey Bot. Club 60: 363. 1933 </t>
+          <t>Bull. Torrey Bot. Club 60: 363. 1933</t>
         </is>
       </c>
       <c r="J90" t="b">
@@ -5672,7 +5672,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -5682,7 +5682,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Acta Bot. Venez. 25(2): 112 (-114, 117-118; fig. 1). 2002 </t>
+          <t>Acta Bot. Venez. 25(2): 112 (-114, 117-118; fig. 1). 2002</t>
         </is>
       </c>
       <c r="J91" t="b">
